--- a/Dataset/15/낮과밤_학습(15)/낮과밤15.xlsx
+++ b/Dataset/15/낮과밤_학습(15)/낮과밤15.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doohk\Desktop\GIST\4학년 1학기\AI 프로젝트\AI\Dataset\15\낮과밤_학습(15)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F022AF23-A293-40B6-8277-EBF1A56BBF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA0FD1F-0CC1-49DF-8889-37771778C28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3669" yWindow="3669" windowWidth="16328" windowHeight="13054" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6189" yWindow="2023" windowWidth="16328" windowHeight="13054" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4497,8 +4497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F681"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E681"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -4540,7 +4540,6 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E65" si="0">IF(ISBLANK(F2),D2,F2)</f>
         <v>0</v>
       </c>
     </row>
@@ -4555,11 +4554,10 @@
         <v>1.536659710109234E-2</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="1">IF(C3&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D3:D66" si="0">IF(C3&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4574,11 +4572,10 @@
         <v>1.4292133972048759E-2</v>
       </c>
       <c r="D4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4593,11 +4590,10 @@
         <v>2.0110428333282471E-2</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4612,11 +4608,10 @@
         <v>1.4248199760913851E-2</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4631,11 +4626,10 @@
         <v>1.467610988765955E-2</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4650,11 +4644,10 @@
         <v>1.6389835625886921E-2</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4669,11 +4662,10 @@
         <v>1.5927985310554501E-2</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4688,11 +4680,10 @@
         <v>0.98989909887313843</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4707,11 +4698,10 @@
         <v>1.4420494437217711E-2</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4726,11 +4716,10 @@
         <v>1.442659553140402E-2</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4745,11 +4734,10 @@
         <v>1.493383012712002E-2</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4764,11 +4752,10 @@
         <v>2.0997347310185429E-2</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4783,11 +4770,10 @@
         <v>1.4446535147726539E-2</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4802,11 +4788,10 @@
         <v>1.873449981212616E-2</v>
       </c>
       <c r="D16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4821,11 +4806,10 @@
         <v>2.674898877739906E-2</v>
       </c>
       <c r="D17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4840,11 +4824,10 @@
         <v>1.5768479555845261E-2</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4859,11 +4842,10 @@
         <v>1.948283426463604E-2</v>
       </c>
       <c r="D19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4878,11 +4860,10 @@
         <v>1.521142572164536E-2</v>
       </c>
       <c r="D20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4897,11 +4878,10 @@
         <v>1.418390870094299E-2</v>
       </c>
       <c r="D21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4916,11 +4896,10 @@
         <v>1.478078868240118E-2</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4935,11 +4914,10 @@
         <v>0.98910748958587646</v>
       </c>
       <c r="D23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4954,11 +4932,10 @@
         <v>0.91661083698272705</v>
       </c>
       <c r="D24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4973,11 +4950,10 @@
         <v>3.0267886817455288E-2</v>
       </c>
       <c r="D25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4992,11 +4968,10 @@
         <v>1.4169754460453991E-2</v>
       </c>
       <c r="D26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5011,11 +4986,10 @@
         <v>1.44934831187129E-2</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5030,11 +5004,10 @@
         <v>0.99059021472930908</v>
       </c>
       <c r="D28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5049,11 +5022,10 @@
         <v>0.80782747268676758</v>
       </c>
       <c r="D29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5068,11 +5040,10 @@
         <v>1.6638047993183139E-2</v>
       </c>
       <c r="D30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5087,11 +5058,10 @@
         <v>1.420185063034296E-2</v>
       </c>
       <c r="D31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5106,11 +5076,10 @@
         <v>1.4160518534481531E-2</v>
       </c>
       <c r="D32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5125,11 +5094,10 @@
         <v>1.4186344109475609E-2</v>
       </c>
       <c r="D33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5144,11 +5112,10 @@
         <v>2.1788924932479858E-2</v>
       </c>
       <c r="D34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5163,11 +5130,10 @@
         <v>3.077701851725578E-2</v>
       </c>
       <c r="D35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5182,11 +5148,10 @@
         <v>1.487341988831758E-2</v>
       </c>
       <c r="D36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5201,11 +5166,10 @@
         <v>1.42895607277751E-2</v>
       </c>
       <c r="D37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5220,11 +5184,10 @@
         <v>0.98559880256652832</v>
       </c>
       <c r="D38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5239,11 +5202,10 @@
         <v>1.4268580824136731E-2</v>
       </c>
       <c r="D39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5258,11 +5220,10 @@
         <v>0.9636375904083252</v>
       </c>
       <c r="D40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F40">
@@ -5280,11 +5241,10 @@
         <v>1.417701784521341E-2</v>
       </c>
       <c r="D41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5299,11 +5259,10 @@
         <v>3.3477943390607827E-2</v>
       </c>
       <c r="D42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5318,11 +5277,10 @@
         <v>1.422951463609934E-2</v>
       </c>
       <c r="D43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5337,11 +5295,10 @@
         <v>2.170424722135067E-2</v>
       </c>
       <c r="D44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5356,11 +5313,10 @@
         <v>1.438469439744949E-2</v>
       </c>
       <c r="D45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5375,11 +5331,10 @@
         <v>1.4191652648150919E-2</v>
       </c>
       <c r="D46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5394,11 +5349,10 @@
         <v>3.0618941411375999E-2</v>
       </c>
       <c r="D47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5413,11 +5367,10 @@
         <v>1.4202062971889969E-2</v>
       </c>
       <c r="D48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5432,11 +5385,10 @@
         <v>2.152262628078461E-2</v>
       </c>
       <c r="D49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E49">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5451,11 +5403,10 @@
         <v>1.6288008540868759E-2</v>
       </c>
       <c r="D50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E50">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5470,11 +5421,10 @@
         <v>2.0524386316537861E-2</v>
       </c>
       <c r="D51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5489,11 +5439,10 @@
         <v>0.99060529470443726</v>
       </c>
       <c r="D52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5508,11 +5457,10 @@
         <v>1.642665266990662E-2</v>
       </c>
       <c r="D53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5527,11 +5475,10 @@
         <v>1.5106134116649629E-2</v>
       </c>
       <c r="D54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E54">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5546,11 +5493,10 @@
         <v>1.492156554013491E-2</v>
       </c>
       <c r="D55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E55">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5565,11 +5511,10 @@
         <v>1.464460324496031E-2</v>
       </c>
       <c r="D56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E56">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5584,11 +5529,10 @@
         <v>0.98678314685821533</v>
       </c>
       <c r="D57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E57">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5603,11 +5547,10 @@
         <v>3.3420473337173462E-2</v>
       </c>
       <c r="D58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E58">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5622,11 +5565,10 @@
         <v>1.4572639018297201E-2</v>
       </c>
       <c r="D59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E59">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5641,11 +5583,10 @@
         <v>2.315341122448444E-2</v>
       </c>
       <c r="D60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E60">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5660,11 +5601,10 @@
         <v>1.7337668687105179E-2</v>
       </c>
       <c r="D61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E61">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5679,11 +5619,10 @@
         <v>4.638899490237236E-2</v>
       </c>
       <c r="D62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E62">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5698,11 +5637,10 @@
         <v>1.4753760769963259E-2</v>
       </c>
       <c r="D63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E63">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5717,11 +5655,10 @@
         <v>1.424613781273365E-2</v>
       </c>
       <c r="D64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E64">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5736,11 +5673,10 @@
         <v>0.95174866914749146</v>
       </c>
       <c r="D65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E65">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5755,11 +5691,10 @@
         <v>0.78018254041671753</v>
       </c>
       <c r="D66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E129" si="2">IF(ISBLANK(F66),D66,F66)</f>
         <v>0</v>
       </c>
       <c r="F66">
@@ -5777,11 +5712,10 @@
         <v>1.571202464401722E-2</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="3">IF(C67&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D67:D130" si="1">IF(C67&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E67">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5796,11 +5730,10 @@
         <v>1.898300834000111E-2</v>
       </c>
       <c r="D68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E68">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5815,11 +5748,10 @@
         <v>1.447626855224371E-2</v>
       </c>
       <c r="D69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E69">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5834,11 +5766,10 @@
         <v>0.99059379100799561</v>
       </c>
       <c r="D70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E70">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5853,11 +5784,10 @@
         <v>1.459831278771162E-2</v>
       </c>
       <c r="D71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E71">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5872,11 +5802,10 @@
         <v>3.5546392202377319E-2</v>
       </c>
       <c r="D72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E72">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5891,11 +5820,10 @@
         <v>1.4866833575069901E-2</v>
       </c>
       <c r="D73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E73">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5910,11 +5838,10 @@
         <v>2.0737100392580029E-2</v>
       </c>
       <c r="D74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E74">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5929,11 +5856,10 @@
         <v>2.0458828657865521E-2</v>
       </c>
       <c r="D75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E75">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5948,11 +5874,10 @@
         <v>1.453758031129837E-2</v>
       </c>
       <c r="D76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E76">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5967,11 +5892,10 @@
         <v>3.6232609301805503E-2</v>
       </c>
       <c r="D77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E77">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5986,11 +5910,10 @@
         <v>1.4783907681703569E-2</v>
       </c>
       <c r="D78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E78">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6005,11 +5928,10 @@
         <v>3.5589385777711868E-2</v>
       </c>
       <c r="D79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E79">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6024,11 +5946,10 @@
         <v>4.6803172677755363E-2</v>
       </c>
       <c r="D80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E80">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6043,11 +5964,10 @@
         <v>2.8374005109071732E-2</v>
       </c>
       <c r="D81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6062,11 +5982,10 @@
         <v>1.445244997739792E-2</v>
       </c>
       <c r="D82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E82">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6081,11 +6000,10 @@
         <v>1.447444409132004E-2</v>
       </c>
       <c r="D83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E83">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6100,11 +6018,10 @@
         <v>0.990284264087677</v>
       </c>
       <c r="D84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E84">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6119,11 +6036,10 @@
         <v>0.99060070514678955</v>
       </c>
       <c r="D85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E85">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6138,11 +6054,10 @@
         <v>0.99058914184570313</v>
       </c>
       <c r="D86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E86">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F86">
@@ -6160,11 +6075,10 @@
         <v>4.96855229139328E-2</v>
       </c>
       <c r="D87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E87">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6179,11 +6093,10 @@
         <v>0.84845066070556641</v>
       </c>
       <c r="D88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E88">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6198,11 +6111,10 @@
         <v>1.436664164066315E-2</v>
       </c>
       <c r="D89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E89">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6217,11 +6129,10 @@
         <v>2.3412458598613739E-2</v>
       </c>
       <c r="D90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E90">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6236,11 +6147,10 @@
         <v>1.512608118355274E-2</v>
       </c>
       <c r="D91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E91">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6255,11 +6165,10 @@
         <v>0.85584110021591187</v>
       </c>
       <c r="D92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E92">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6274,11 +6183,10 @@
         <v>0.98935437202453613</v>
       </c>
       <c r="D93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E93">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6293,11 +6201,10 @@
         <v>0.98983711004257202</v>
       </c>
       <c r="D94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E94">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6312,11 +6219,10 @@
         <v>1.449687499552965E-2</v>
       </c>
       <c r="D95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E95">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6331,11 +6237,10 @@
         <v>1.426416169852018E-2</v>
       </c>
       <c r="D96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E96">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6350,11 +6255,10 @@
         <v>2.6684297248721119E-2</v>
       </c>
       <c r="D97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E97">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6369,11 +6273,10 @@
         <v>0.92215430736541748</v>
       </c>
       <c r="D98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E98">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F98">
@@ -6391,11 +6294,10 @@
         <v>1.4192113652825361E-2</v>
       </c>
       <c r="D99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E99">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6410,11 +6312,10 @@
         <v>0.99058985710144043</v>
       </c>
       <c r="D100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E100">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6429,11 +6330,10 @@
         <v>0.61635702848434448</v>
       </c>
       <c r="D101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E101">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F101">
@@ -6451,11 +6351,10 @@
         <v>1.602859795093536E-2</v>
       </c>
       <c r="D102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E102">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6470,11 +6369,10 @@
         <v>1.419037859886885E-2</v>
       </c>
       <c r="D103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E103">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6489,11 +6387,10 @@
         <v>3.2819986343383789E-2</v>
       </c>
       <c r="D104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6508,11 +6405,10 @@
         <v>1.487340033054352E-2</v>
       </c>
       <c r="D105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E105">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6527,11 +6423,10 @@
         <v>1.4441194012761119E-2</v>
       </c>
       <c r="D106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E106">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6546,11 +6441,10 @@
         <v>0.98580288887023926</v>
       </c>
       <c r="D107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E107">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F107">
@@ -6568,11 +6462,10 @@
         <v>1.4261164702475069E-2</v>
       </c>
       <c r="D108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E108">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6587,11 +6480,10 @@
         <v>1.4380889944732189E-2</v>
       </c>
       <c r="D109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E109">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6606,11 +6498,10 @@
         <v>1.430204603821039E-2</v>
       </c>
       <c r="D110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E110">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6625,11 +6516,10 @@
         <v>2.7458986267447472E-2</v>
       </c>
       <c r="D111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E111">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6644,11 +6534,10 @@
         <v>0.99057579040527344</v>
       </c>
       <c r="D112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E112">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6663,11 +6552,10 @@
         <v>1.7729829996824261E-2</v>
       </c>
       <c r="D113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E113">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6682,11 +6570,10 @@
         <v>1.4185783453285691E-2</v>
       </c>
       <c r="D114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E114">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6701,11 +6588,10 @@
         <v>1.459362171590328E-2</v>
       </c>
       <c r="D115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E115">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6720,11 +6606,10 @@
         <v>1.9746873527765271E-2</v>
       </c>
       <c r="D116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E116">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6739,11 +6624,10 @@
         <v>1.5003017149865631E-2</v>
       </c>
       <c r="D117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E117">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6758,11 +6642,10 @@
         <v>1.417281851172447E-2</v>
       </c>
       <c r="D118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E118">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6777,11 +6660,10 @@
         <v>1.4374766498804091E-2</v>
       </c>
       <c r="D119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E119">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6796,11 +6678,10 @@
         <v>1.5980124473571781E-2</v>
       </c>
       <c r="D120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E120">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6815,11 +6696,10 @@
         <v>1.43040157854557E-2</v>
       </c>
       <c r="D121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E121">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6834,11 +6714,10 @@
         <v>1.4521617442369459E-2</v>
       </c>
       <c r="D122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E122">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6853,11 +6732,10 @@
         <v>2.198499999940395E-2</v>
       </c>
       <c r="D123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E123">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6872,11 +6750,10 @@
         <v>1.585005410015583E-2</v>
       </c>
       <c r="D124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E124">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6891,11 +6768,10 @@
         <v>1.5773992985486981E-2</v>
       </c>
       <c r="D125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E125">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6910,11 +6786,10 @@
         <v>2.0073730498552319E-2</v>
       </c>
       <c r="D126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E126">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6929,11 +6804,10 @@
         <v>1.4193501323461531E-2</v>
       </c>
       <c r="D127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E127">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6948,11 +6822,10 @@
         <v>2.8845785185694691E-2</v>
       </c>
       <c r="D128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E128">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6967,11 +6840,10 @@
         <v>1.440129429101944E-2</v>
       </c>
       <c r="D129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E129">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6986,11 +6858,10 @@
         <v>1.782119087874889E-2</v>
       </c>
       <c r="D130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E130">
-        <f t="shared" ref="E130:E193" si="4">IF(ISBLANK(F130),D130,F130)</f>
         <v>0</v>
       </c>
     </row>
@@ -7005,11 +6876,10 @@
         <v>1.4292752370238301E-2</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D194" si="5">IF(C131&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D131:D194" si="2">IF(C131&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E131">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7024,11 +6894,10 @@
         <v>2.543539367616177E-2</v>
       </c>
       <c r="D132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E132">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7043,11 +6912,10 @@
         <v>1.428258512169123E-2</v>
       </c>
       <c r="D133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E133">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7062,11 +6930,10 @@
         <v>1.437195017933846E-2</v>
       </c>
       <c r="D134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E134">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7081,11 +6948,10 @@
         <v>7.9250603914260864E-2</v>
       </c>
       <c r="D135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E135">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7100,11 +6966,10 @@
         <v>1.4974153600633139E-2</v>
       </c>
       <c r="D136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E136">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7119,11 +6984,10 @@
         <v>1.418597064912319E-2</v>
       </c>
       <c r="D137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E137">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7138,11 +7002,10 @@
         <v>2.009907923638821E-2</v>
       </c>
       <c r="D138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E138">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7157,11 +7020,10 @@
         <v>1.4303202740848059E-2</v>
       </c>
       <c r="D139">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E139">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7176,11 +7038,10 @@
         <v>1.464282162487507E-2</v>
       </c>
       <c r="D140">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E140">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7195,11 +7056,10 @@
         <v>1.425908133387566E-2</v>
       </c>
       <c r="D141">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E141">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7214,11 +7074,10 @@
         <v>1.421576179563999E-2</v>
       </c>
       <c r="D142">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E142">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7233,11 +7092,10 @@
         <v>1.462440751492977E-2</v>
       </c>
       <c r="D143">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E143">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7252,11 +7110,10 @@
         <v>1.9100561738014221E-2</v>
       </c>
       <c r="D144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E144">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7271,11 +7128,10 @@
         <v>1.4867721125483509E-2</v>
       </c>
       <c r="D145">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E145">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7290,11 +7146,10 @@
         <v>1.507100835442543E-2</v>
       </c>
       <c r="D146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E146">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7309,11 +7164,10 @@
         <v>0.76982319355010986</v>
       </c>
       <c r="D147">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E147">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F147">
@@ -7331,11 +7185,10 @@
         <v>1.416721660643816E-2</v>
       </c>
       <c r="D148">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E148">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7350,11 +7203,10 @@
         <v>1.4786276035010809E-2</v>
       </c>
       <c r="D149">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E149">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7369,11 +7221,10 @@
         <v>1.453046500682831E-2</v>
       </c>
       <c r="D150">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E150">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7388,11 +7239,10 @@
         <v>1.435606554150581E-2</v>
       </c>
       <c r="D151">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E151">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7407,11 +7257,10 @@
         <v>3.1393695622682571E-2</v>
       </c>
       <c r="D152">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E152">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7426,11 +7275,10 @@
         <v>1.4738644473254681E-2</v>
       </c>
       <c r="D153">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E153">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7445,11 +7293,10 @@
         <v>1.473043952137232E-2</v>
       </c>
       <c r="D154">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E154">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7464,11 +7311,10 @@
         <v>1.7569277435541149E-2</v>
       </c>
       <c r="D155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E155">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7483,11 +7329,10 @@
         <v>3.3087275922298431E-2</v>
       </c>
       <c r="D156">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E156">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7502,11 +7347,10 @@
         <v>1.48079227656126E-2</v>
       </c>
       <c r="D157">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E157">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7521,11 +7365,10 @@
         <v>0.9903150200843811</v>
       </c>
       <c r="D158">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E158">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7540,11 +7383,10 @@
         <v>1.442303042858839E-2</v>
       </c>
       <c r="D159">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E159">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7559,11 +7401,10 @@
         <v>1.4287023805081841E-2</v>
       </c>
       <c r="D160">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E160">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7578,11 +7419,10 @@
         <v>1.439415570348501E-2</v>
       </c>
       <c r="D161">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E161">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7597,11 +7437,10 @@
         <v>1.472525205463171E-2</v>
       </c>
       <c r="D162">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E162">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7616,11 +7455,10 @@
         <v>1.4907617121934891E-2</v>
       </c>
       <c r="D163">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E163">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7635,11 +7473,10 @@
         <v>2.2071694955229759E-2</v>
       </c>
       <c r="D164">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E164">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7654,11 +7491,10 @@
         <v>1.495150197297335E-2</v>
       </c>
       <c r="D165">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E165">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7673,11 +7509,10 @@
         <v>1.4513322152197359E-2</v>
       </c>
       <c r="D166">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E166">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7692,11 +7527,10 @@
         <v>1.4197057113051409E-2</v>
       </c>
       <c r="D167">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E167">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7711,11 +7545,10 @@
         <v>1.4303679578006269E-2</v>
       </c>
       <c r="D168">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E168">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7730,11 +7563,10 @@
         <v>7.103370875120163E-2</v>
       </c>
       <c r="D169">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E169">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7749,11 +7581,10 @@
         <v>1.4952295459806921E-2</v>
       </c>
       <c r="D170">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E170">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7768,11 +7599,10 @@
         <v>1.4193934388458731E-2</v>
       </c>
       <c r="D171">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E171">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7787,11 +7617,10 @@
         <v>1.432718895375729E-2</v>
       </c>
       <c r="D172">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E172">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7806,11 +7635,10 @@
         <v>1.417821645736694E-2</v>
       </c>
       <c r="D173">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E173">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7825,11 +7653,10 @@
         <v>2.3073120042681691E-2</v>
       </c>
       <c r="D174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E174">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7844,11 +7671,10 @@
         <v>1.453653536736965E-2</v>
       </c>
       <c r="D175">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E175">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7863,11 +7689,10 @@
         <v>2.8259942308068279E-2</v>
       </c>
       <c r="D176">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E176">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7882,11 +7707,10 @@
         <v>1.648660562932491E-2</v>
       </c>
       <c r="D177">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E177">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7901,11 +7725,10 @@
         <v>1.470158901065588E-2</v>
       </c>
       <c r="D178">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E178">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7920,11 +7743,10 @@
         <v>1.4189598150551321E-2</v>
       </c>
       <c r="D179">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E179">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7939,11 +7761,10 @@
         <v>5.1847141236066818E-2</v>
       </c>
       <c r="D180">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E180">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7958,11 +7779,10 @@
         <v>1.4244658872485161E-2</v>
       </c>
       <c r="D181">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E181">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7977,11 +7797,10 @@
         <v>1.427315548062325E-2</v>
       </c>
       <c r="D182">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E182">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7996,11 +7815,10 @@
         <v>1.455559208989143E-2</v>
       </c>
       <c r="D183">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E183">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8015,11 +7833,10 @@
         <v>1.913666166365147E-2</v>
       </c>
       <c r="D184">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E184">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8034,11 +7851,10 @@
         <v>3.8275748491287231E-2</v>
       </c>
       <c r="D185">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E185">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8053,11 +7869,10 @@
         <v>1.420954242348671E-2</v>
       </c>
       <c r="D186">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E186">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8072,11 +7887,10 @@
         <v>1.6782099381089211E-2</v>
       </c>
       <c r="D187">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E187">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8091,11 +7905,10 @@
         <v>1.4459202066063879E-2</v>
       </c>
       <c r="D188">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E188">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8110,11 +7923,10 @@
         <v>1.459406036883593E-2</v>
       </c>
       <c r="D189">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E189">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8129,11 +7941,10 @@
         <v>1.5293293632566931E-2</v>
       </c>
       <c r="D190">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E190">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8148,11 +7959,10 @@
         <v>2.855121344327927E-2</v>
       </c>
       <c r="D191">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E191">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8167,11 +7977,10 @@
         <v>1.6244599595665932E-2</v>
       </c>
       <c r="D192">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E192">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8186,11 +7995,10 @@
         <v>1.4263699762523171E-2</v>
       </c>
       <c r="D193">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E193">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8205,11 +8013,10 @@
         <v>1.613305322825909E-2</v>
       </c>
       <c r="D194">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E194">
-        <f t="shared" ref="E194:E257" si="6">IF(ISBLANK(F194),D194,F194)</f>
         <v>0</v>
       </c>
     </row>
@@ -8224,11 +8031,10 @@
         <v>1.4229808002710341E-2</v>
       </c>
       <c r="D195">
-        <f t="shared" ref="D195:D258" si="7">IF(C195&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D195:D258" si="3">IF(C195&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E195">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8243,11 +8049,10 @@
         <v>0.33108904957771301</v>
       </c>
       <c r="D196">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E196">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8262,11 +8067,10 @@
         <v>1.438311953097582E-2</v>
       </c>
       <c r="D197">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E197">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8281,11 +8085,10 @@
         <v>1.4499347656965259E-2</v>
       </c>
       <c r="D198">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E198">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8300,11 +8103,10 @@
         <v>2.9332404956221581E-2</v>
       </c>
       <c r="D199">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E199">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8319,11 +8121,10 @@
         <v>1.420082245022058E-2</v>
       </c>
       <c r="D200">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E200">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8338,11 +8139,10 @@
         <v>1.4230155386030671E-2</v>
       </c>
       <c r="D201">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E201">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8357,11 +8157,10 @@
         <v>1.448386814445257E-2</v>
       </c>
       <c r="D202">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E202">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8376,11 +8175,10 @@
         <v>1.419612392783165E-2</v>
       </c>
       <c r="D203">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E203">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8395,11 +8193,10 @@
         <v>1.4965555630624291E-2</v>
       </c>
       <c r="D204">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E204">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8414,11 +8211,10 @@
         <v>1.4581797644495961E-2</v>
       </c>
       <c r="D205">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E205">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8433,11 +8229,10 @@
         <v>1.4517128467559809E-2</v>
       </c>
       <c r="D206">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E206">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8452,11 +8247,10 @@
         <v>1.4789833687245849E-2</v>
       </c>
       <c r="D207">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E207">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8471,11 +8265,10 @@
         <v>1.4356172643601889E-2</v>
       </c>
       <c r="D208">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E208">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8490,11 +8283,10 @@
         <v>0.32774770259857178</v>
       </c>
       <c r="D209">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E209">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8509,11 +8301,10 @@
         <v>1.427047979086637E-2</v>
       </c>
       <c r="D210">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E210">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8528,11 +8319,10 @@
         <v>1.443142350763083E-2</v>
       </c>
       <c r="D211">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E211">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8547,11 +8337,10 @@
         <v>1.7268668860197071E-2</v>
       </c>
       <c r="D212">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E212">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8566,11 +8355,10 @@
         <v>1.438993494957685E-2</v>
       </c>
       <c r="D213">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E213">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8585,11 +8373,10 @@
         <v>1.473746728152037E-2</v>
       </c>
       <c r="D214">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E214">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8604,11 +8391,10 @@
         <v>1.458732131868601E-2</v>
       </c>
       <c r="D215">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E215">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8623,11 +8409,10 @@
         <v>2.1241920068860051E-2</v>
       </c>
       <c r="D216">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E216">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8642,11 +8427,10 @@
         <v>1.4700206927955151E-2</v>
       </c>
       <c r="D217">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E217">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8661,11 +8445,10 @@
         <v>1.447583176195621E-2</v>
       </c>
       <c r="D218">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E218">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8680,11 +8463,10 @@
         <v>1.507982891052961E-2</v>
       </c>
       <c r="D219">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E219">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8699,11 +8481,10 @@
         <v>1.4320827089250089E-2</v>
       </c>
       <c r="D220">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E220">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8718,11 +8499,10 @@
         <v>1.438533701002598E-2</v>
       </c>
       <c r="D221">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E221">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8737,11 +8517,10 @@
         <v>1.473055128008127E-2</v>
       </c>
       <c r="D222">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E222">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8756,11 +8535,10 @@
         <v>1.4649598859250551E-2</v>
       </c>
       <c r="D223">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E223">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8775,11 +8553,10 @@
         <v>1.4265609905123711E-2</v>
       </c>
       <c r="D224">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E224">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8794,11 +8571,10 @@
         <v>1.4287883415818209E-2</v>
       </c>
       <c r="D225">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E225">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8813,11 +8589,10 @@
         <v>1.4195595867931839E-2</v>
       </c>
       <c r="D226">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E226">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8832,11 +8607,10 @@
         <v>1.4407197013497351E-2</v>
       </c>
       <c r="D227">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E227">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8851,11 +8625,10 @@
         <v>1.4273759908974171E-2</v>
       </c>
       <c r="D228">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E228">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8870,11 +8643,10 @@
         <v>1.4435263350605959E-2</v>
       </c>
       <c r="D229">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E229">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8889,11 +8661,10 @@
         <v>1.4991662465035921E-2</v>
       </c>
       <c r="D230">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E230">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8908,11 +8679,10 @@
         <v>1.4205240644514561E-2</v>
       </c>
       <c r="D231">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E231">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8927,11 +8697,10 @@
         <v>1.6081154346466061E-2</v>
       </c>
       <c r="D232">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E232">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8946,11 +8715,10 @@
         <v>2.385034412145615E-2</v>
       </c>
       <c r="D233">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E233">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8965,11 +8733,10 @@
         <v>0.91934263706207275</v>
       </c>
       <c r="D234">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E234">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F234">
@@ -8987,11 +8754,10 @@
         <v>1.4592757448554041E-2</v>
       </c>
       <c r="D235">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E235">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9006,11 +8772,10 @@
         <v>1.4321607537567621E-2</v>
       </c>
       <c r="D236">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E236">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9025,11 +8790,10 @@
         <v>2.0920708775520321E-2</v>
       </c>
       <c r="D237">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E237">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9044,11 +8808,10 @@
         <v>1.7440818250179291E-2</v>
       </c>
       <c r="D238">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E238">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9063,11 +8826,10 @@
         <v>1.4267958700656889E-2</v>
       </c>
       <c r="D239">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E239">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9082,11 +8844,10 @@
         <v>1.4236585237085819E-2</v>
       </c>
       <c r="D240">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E240">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9101,11 +8862,10 @@
         <v>1.416738983243704E-2</v>
       </c>
       <c r="D241">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E241">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9120,11 +8880,10 @@
         <v>1.4734821394085881E-2</v>
       </c>
       <c r="D242">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E242">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9139,11 +8898,10 @@
         <v>1.4572420157492161E-2</v>
       </c>
       <c r="D243">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E243">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9158,11 +8916,10 @@
         <v>1.4535258524119851E-2</v>
       </c>
       <c r="D244">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E244">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9177,11 +8934,10 @@
         <v>1.437139697372913E-2</v>
       </c>
       <c r="D245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E245">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9196,11 +8952,10 @@
         <v>1.4450208283960819E-2</v>
       </c>
       <c r="D246">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E246">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9215,11 +8970,10 @@
         <v>1.5425276942551139E-2</v>
       </c>
       <c r="D247">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E247">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9234,11 +8988,10 @@
         <v>0.83508747816085815</v>
       </c>
       <c r="D248">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E248">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -9253,11 +9006,10 @@
         <v>2.3603733628988269E-2</v>
       </c>
       <c r="D249">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E249">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9272,11 +9024,10 @@
         <v>1.4349455013871189E-2</v>
       </c>
       <c r="D250">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E250">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9291,11 +9042,10 @@
         <v>1.9720487296581268E-2</v>
       </c>
       <c r="D251">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E251">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9310,11 +9060,10 @@
         <v>1.4211566187441351E-2</v>
       </c>
       <c r="D252">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E252">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9329,11 +9078,10 @@
         <v>4.113093763589859E-2</v>
       </c>
       <c r="D253">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E253">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9348,11 +9096,10 @@
         <v>1.4216979034245011E-2</v>
       </c>
       <c r="D254">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E254">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9367,11 +9114,10 @@
         <v>0.33109396696090698</v>
       </c>
       <c r="D255">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E255">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9386,11 +9132,10 @@
         <v>1.4556932263076311E-2</v>
       </c>
       <c r="D256">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E256">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9405,11 +9150,10 @@
         <v>1.9476106390357021E-2</v>
       </c>
       <c r="D257">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E257">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9424,11 +9168,10 @@
         <v>1.448037661612034E-2</v>
       </c>
       <c r="D258">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E258">
-        <f t="shared" ref="E258:E321" si="8">IF(ISBLANK(F258),D258,F258)</f>
         <v>0</v>
       </c>
     </row>
@@ -9443,11 +9186,10 @@
         <v>1.421285513788462E-2</v>
       </c>
       <c r="D259">
-        <f t="shared" ref="D259:D322" si="9">IF(C259&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D259:D322" si="4">IF(C259&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E259">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9462,11 +9204,10 @@
         <v>1.437013316899538E-2</v>
       </c>
       <c r="D260">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E260">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9481,11 +9222,10 @@
         <v>1.4255126938223841E-2</v>
       </c>
       <c r="D261">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E261">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9500,11 +9240,10 @@
         <v>2.3068370297551159E-2</v>
       </c>
       <c r="D262">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E262">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9519,11 +9258,10 @@
         <v>1.4347155578434471E-2</v>
       </c>
       <c r="D263">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E263">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9538,11 +9276,10 @@
         <v>2.0771404728293419E-2</v>
       </c>
       <c r="D264">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E264">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9557,11 +9294,10 @@
         <v>1.426538173109293E-2</v>
       </c>
       <c r="D265">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E265">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9576,11 +9312,10 @@
         <v>6.0026437044143677E-2</v>
       </c>
       <c r="D266">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E266">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9595,11 +9330,10 @@
         <v>2.0671399310231209E-2</v>
       </c>
       <c r="D267">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E267">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9614,11 +9348,10 @@
         <v>1.420940831303596E-2</v>
       </c>
       <c r="D268">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E268">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9633,11 +9366,10 @@
         <v>0.97645831108093262</v>
       </c>
       <c r="D269">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E269">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9652,11 +9384,10 @@
         <v>1.4360654167830941E-2</v>
       </c>
       <c r="D270">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E270">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9671,11 +9402,10 @@
         <v>1.436169352382421E-2</v>
       </c>
       <c r="D271">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E271">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9690,11 +9420,10 @@
         <v>1.576304063200951E-2</v>
       </c>
       <c r="D272">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E272">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9709,11 +9438,10 @@
         <v>1.440351456403732E-2</v>
       </c>
       <c r="D273">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E273">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9728,11 +9456,10 @@
         <v>2.0629642531275749E-2</v>
       </c>
       <c r="D274">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E274">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9747,11 +9474,10 @@
         <v>1.419285405427217E-2</v>
       </c>
       <c r="D275">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E275">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9766,11 +9492,10 @@
         <v>1.426384691148996E-2</v>
       </c>
       <c r="D276">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E276">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9785,11 +9510,10 @@
         <v>2.5760013610124591E-2</v>
       </c>
       <c r="D277">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E277">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9804,11 +9528,10 @@
         <v>1.4335379004478449E-2</v>
       </c>
       <c r="D278">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E278">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9823,11 +9546,10 @@
         <v>1.482865214347839E-2</v>
       </c>
       <c r="D279">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E279">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9842,11 +9564,10 @@
         <v>1.8345732241868969E-2</v>
       </c>
       <c r="D280">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E280">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9861,11 +9582,10 @@
         <v>1.455004699528217E-2</v>
       </c>
       <c r="D281">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E281">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9880,11 +9600,10 @@
         <v>2.6666907593607899E-2</v>
       </c>
       <c r="D282">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E282">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9899,11 +9618,10 @@
         <v>1.5844520181417469E-2</v>
       </c>
       <c r="D283">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E283">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9918,11 +9636,10 @@
         <v>0.30889827013015753</v>
       </c>
       <c r="D284">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E284">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9937,11 +9654,10 @@
         <v>2.7991065755486488E-2</v>
       </c>
       <c r="D285">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E285">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9956,11 +9672,10 @@
         <v>1.4371964149177069E-2</v>
       </c>
       <c r="D286">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E286">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9975,11 +9690,10 @@
         <v>1.8845438957214359E-2</v>
       </c>
       <c r="D287">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E287">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9994,11 +9708,10 @@
         <v>1.555083692073822E-2</v>
       </c>
       <c r="D288">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E288">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10013,11 +9726,10 @@
         <v>0.95529937744140625</v>
       </c>
       <c r="D289">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E289">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -10032,11 +9744,10 @@
         <v>2.383606135845184E-2</v>
       </c>
       <c r="D290">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E290">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10051,11 +9762,10 @@
         <v>0.99051731824874878</v>
       </c>
       <c r="D291">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E291">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -10070,11 +9780,10 @@
         <v>4.4231336563825607E-2</v>
       </c>
       <c r="D292">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E292">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10089,11 +9798,10 @@
         <v>2.9184790328145031E-2</v>
       </c>
       <c r="D293">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E293">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10108,11 +9816,10 @@
         <v>4.0661394596099847E-2</v>
       </c>
       <c r="D294">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E294">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10127,11 +9834,10 @@
         <v>3.2550148665904999E-2</v>
       </c>
       <c r="D295">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E295">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10146,11 +9852,10 @@
         <v>0.99044191837310791</v>
       </c>
       <c r="D296">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E296">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -10165,11 +9870,10 @@
         <v>5.6700862944126129E-2</v>
       </c>
       <c r="D297">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E297">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10184,11 +9888,10 @@
         <v>1.4828505925834181E-2</v>
       </c>
       <c r="D298">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E298">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10203,11 +9906,10 @@
         <v>2.106397598981857E-2</v>
       </c>
       <c r="D299">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E299">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10222,11 +9924,10 @@
         <v>1.8536984920501709E-2</v>
       </c>
       <c r="D300">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E300">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10241,11 +9942,10 @@
         <v>1.466951798647642E-2</v>
       </c>
       <c r="D301">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E301">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10260,11 +9960,10 @@
         <v>2.2807858884334561E-2</v>
       </c>
       <c r="D302">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E302">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10279,11 +9978,10 @@
         <v>1.4291086234152321E-2</v>
       </c>
       <c r="D303">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E303">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10298,11 +9996,10 @@
         <v>1.445841416716576E-2</v>
       </c>
       <c r="D304">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E304">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10317,11 +10014,10 @@
         <v>1.4283517375588421E-2</v>
       </c>
       <c r="D305">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E305">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10336,11 +10032,10 @@
         <v>1.450137887150049E-2</v>
       </c>
       <c r="D306">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E306">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10355,11 +10050,10 @@
         <v>4.3768785893917077E-2</v>
       </c>
       <c r="D307">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E307">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10374,11 +10068,10 @@
         <v>3.3901672810316093E-2</v>
       </c>
       <c r="D308">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E308">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10393,11 +10086,10 @@
         <v>2.5795003399252892E-2</v>
       </c>
       <c r="D309">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E309">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10412,11 +10104,10 @@
         <v>0.94374352693557739</v>
       </c>
       <c r="D310">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E310">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -10431,11 +10122,10 @@
         <v>2.521255798637867E-2</v>
       </c>
       <c r="D311">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E311">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10450,11 +10140,10 @@
         <v>0.98969215154647827</v>
       </c>
       <c r="D312">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E312">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F312">
@@ -10472,11 +10161,10 @@
         <v>2.685509063303471E-2</v>
       </c>
       <c r="D313">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E313">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10491,11 +10179,10 @@
         <v>1.429955288767815E-2</v>
       </c>
       <c r="D314">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E314">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10510,11 +10197,10 @@
         <v>7.7391572296619415E-2</v>
       </c>
       <c r="D315">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E315">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10529,11 +10215,10 @@
         <v>2.385034412145615E-2</v>
       </c>
       <c r="D316">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E316">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10548,11 +10233,10 @@
         <v>1.934394612908363E-2</v>
       </c>
       <c r="D317">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E317">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10567,11 +10251,10 @@
         <v>1.420028042048216E-2</v>
       </c>
       <c r="D318">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E318">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10586,11 +10269,10 @@
         <v>1.463835779577494E-2</v>
       </c>
       <c r="D319">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E319">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10605,11 +10287,10 @@
         <v>1.72567293047905E-2</v>
       </c>
       <c r="D320">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E320">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10624,11 +10305,10 @@
         <v>1.5203035436570639E-2</v>
       </c>
       <c r="D321">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E321">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10643,11 +10323,10 @@
         <v>2.866113185882568E-2</v>
       </c>
       <c r="D322">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E322">
-        <f t="shared" ref="E322:E385" si="10">IF(ISBLANK(F322),D322,F322)</f>
         <v>0</v>
       </c>
     </row>
@@ -10662,11 +10341,10 @@
         <v>1.4254128560423849E-2</v>
       </c>
       <c r="D323">
-        <f t="shared" ref="D323:D386" si="11">IF(C323&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D323:D386" si="5">IF(C323&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E323">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10681,11 +10359,10 @@
         <v>1.4278745278716091E-2</v>
       </c>
       <c r="D324">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E324">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10700,11 +10377,10 @@
         <v>1.4405715279281139E-2</v>
       </c>
       <c r="D325">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E325">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10719,11 +10395,10 @@
         <v>1.7182601615786549E-2</v>
       </c>
       <c r="D326">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E326">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10738,11 +10413,10 @@
         <v>1.44242700189352E-2</v>
       </c>
       <c r="D327">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E327">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10757,11 +10431,10 @@
         <v>1.4303679578006269E-2</v>
       </c>
       <c r="D328">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E328">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10776,11 +10449,10 @@
         <v>1.42185827717185E-2</v>
       </c>
       <c r="D329">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E329">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10795,11 +10467,10 @@
         <v>0.21771432459354401</v>
       </c>
       <c r="D330">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E330">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10814,11 +10485,10 @@
         <v>1.8704133108258251E-2</v>
       </c>
       <c r="D331">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E331">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10833,11 +10503,10 @@
         <v>1.424230728298426E-2</v>
       </c>
       <c r="D332">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E332">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10852,11 +10521,10 @@
         <v>1.479975786060095E-2</v>
       </c>
       <c r="D333">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E333">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10871,11 +10539,10 @@
         <v>1.809226535260677E-2</v>
       </c>
       <c r="D334">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E334">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10890,11 +10557,10 @@
         <v>1.6455428674817089E-2</v>
       </c>
       <c r="D335">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E335">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10909,11 +10575,10 @@
         <v>0.33109018206596369</v>
       </c>
       <c r="D336">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E336">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10928,11 +10593,10 @@
         <v>1.465619541704655E-2</v>
       </c>
       <c r="D337">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E337">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10947,11 +10611,10 @@
         <v>1.5101055614650249E-2</v>
       </c>
       <c r="D338">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E338">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10966,11 +10629,10 @@
         <v>1.4252929948270319E-2</v>
       </c>
       <c r="D339">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E339">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10985,11 +10647,10 @@
         <v>1.492384355515242E-2</v>
       </c>
       <c r="D340">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E340">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11004,11 +10665,10 @@
         <v>2.415496855974197E-2</v>
       </c>
       <c r="D341">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E341">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11023,11 +10683,10 @@
         <v>1.4238975010812281E-2</v>
       </c>
       <c r="D342">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E342">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11042,11 +10701,10 @@
         <v>1.416068524122238E-2</v>
       </c>
       <c r="D343">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E343">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11061,11 +10719,10 @@
         <v>1.9326301291584969E-2</v>
       </c>
       <c r="D344">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E344">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11080,11 +10737,10 @@
         <v>1.5573264099657541E-2</v>
       </c>
       <c r="D345">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E345">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11099,11 +10755,10 @@
         <v>1.486916653811932E-2</v>
       </c>
       <c r="D346">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E346">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11118,11 +10773,10 @@
         <v>1.5506638213992121E-2</v>
       </c>
       <c r="D347">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E347">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11137,11 +10791,10 @@
         <v>1.548232324421406E-2</v>
       </c>
       <c r="D348">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E348">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11156,11 +10809,10 @@
         <v>0.33109897375106812</v>
       </c>
       <c r="D349">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E349">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11175,11 +10827,10 @@
         <v>4.8738446086645133E-2</v>
       </c>
       <c r="D350">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E350">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11194,11 +10845,10 @@
         <v>2.2985784336924549E-2</v>
       </c>
       <c r="D351">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E351">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11213,11 +10863,10 @@
         <v>1.4650514349341391E-2</v>
       </c>
       <c r="D352">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E352">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11232,11 +10881,10 @@
         <v>2.9894506558775898E-2</v>
       </c>
       <c r="D353">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E353">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11251,11 +10899,10 @@
         <v>1.5814322978258129E-2</v>
       </c>
       <c r="D354">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E354">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11270,11 +10917,10 @@
         <v>4.0853694081306458E-2</v>
       </c>
       <c r="D355">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E355">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11289,11 +10935,10 @@
         <v>3.3698186278343201E-2</v>
       </c>
       <c r="D356">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E356">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11308,11 +10953,10 @@
         <v>0.33110514283180242</v>
       </c>
       <c r="D357">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E357">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11327,11 +10971,10 @@
         <v>1.48724764585495E-2</v>
       </c>
       <c r="D358">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E358">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11346,11 +10989,10 @@
         <v>1.4737639576196671E-2</v>
       </c>
       <c r="D359">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E359">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11365,11 +11007,10 @@
         <v>1.453184429556131E-2</v>
       </c>
       <c r="D360">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E360">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11384,11 +11025,10 @@
         <v>2.0826173946261409E-2</v>
       </c>
       <c r="D361">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E361">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11403,11 +11043,10 @@
         <v>2.4284074082970619E-2</v>
       </c>
       <c r="D362">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E362">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11422,11 +11061,10 @@
         <v>1.4225113205611709E-2</v>
       </c>
       <c r="D363">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E363">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11441,11 +11079,10 @@
         <v>1.453380286693573E-2</v>
       </c>
       <c r="D364">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E364">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11460,11 +11097,10 @@
         <v>1.5523179434239859E-2</v>
       </c>
       <c r="D365">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E365">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11479,11 +11115,10 @@
         <v>1.450901292264462E-2</v>
       </c>
       <c r="D366">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E366">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11498,11 +11133,10 @@
         <v>1.43811060115695E-2</v>
       </c>
       <c r="D367">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E367">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11517,11 +11151,10 @@
         <v>1.429304108023643E-2</v>
       </c>
       <c r="D368">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E368">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11536,11 +11169,10 @@
         <v>1.6129381954669949E-2</v>
       </c>
       <c r="D369">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E369">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11555,11 +11187,10 @@
         <v>1.507347077131271E-2</v>
       </c>
       <c r="D370">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E370">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11574,11 +11205,10 @@
         <v>0.99029785394668579</v>
       </c>
       <c r="D371">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E371">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F371">
@@ -11596,11 +11226,10 @@
         <v>1.4354546554386619E-2</v>
       </c>
       <c r="D372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E372">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11615,11 +11244,10 @@
         <v>1.426178868860006E-2</v>
       </c>
       <c r="D373">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E373">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11634,11 +11262,10 @@
         <v>2.1960841491818432E-2</v>
       </c>
       <c r="D374">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E374">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11653,11 +11280,10 @@
         <v>1.4364076778292659E-2</v>
       </c>
       <c r="D375">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E375">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11672,11 +11298,10 @@
         <v>1.443767175078392E-2</v>
       </c>
       <c r="D376">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E376">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11691,11 +11316,10 @@
         <v>1.5606962144374849E-2</v>
       </c>
       <c r="D377">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E377">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11710,11 +11334,10 @@
         <v>1.4383606612682341E-2</v>
       </c>
       <c r="D378">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E378">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11729,11 +11352,10 @@
         <v>3.1892936676740653E-2</v>
       </c>
       <c r="D379">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E379">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11748,11 +11370,10 @@
         <v>1.9496109336614609E-2</v>
       </c>
       <c r="D380">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E380">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11767,11 +11388,10 @@
         <v>1.444813143461943E-2</v>
       </c>
       <c r="D381">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E381">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11786,11 +11406,10 @@
         <v>1.4292659237980841E-2</v>
       </c>
       <c r="D382">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E382">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11805,11 +11424,10 @@
         <v>1.8707830458879471E-2</v>
       </c>
       <c r="D383">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E383">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11824,11 +11442,10 @@
         <v>1.4850626699626449E-2</v>
       </c>
       <c r="D384">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E384">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11843,11 +11460,10 @@
         <v>1.448347326368093E-2</v>
       </c>
       <c r="D385">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E385">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11862,11 +11478,10 @@
         <v>1.4538325369358059E-2</v>
       </c>
       <c r="D386">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E386">
-        <f t="shared" ref="E386:E449" si="12">IF(ISBLANK(F386),D386,F386)</f>
         <v>0</v>
       </c>
     </row>
@@ -11881,11 +11496,10 @@
         <v>1.41867371276021E-2</v>
       </c>
       <c r="D387">
-        <f t="shared" ref="D387:D450" si="13">IF(C387&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D387:D450" si="6">IF(C387&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E387">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11900,11 +11514,10 @@
         <v>0.97281420230865479</v>
       </c>
       <c r="D388">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E388">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F388">
@@ -11922,11 +11535,10 @@
         <v>1.5041329897940161E-2</v>
       </c>
       <c r="D389">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E389">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11941,11 +11553,10 @@
         <v>5.7701218873262412E-2</v>
       </c>
       <c r="D390">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E390">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11960,11 +11571,10 @@
         <v>0.9905427098274231</v>
       </c>
       <c r="D391">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E391">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -11979,11 +11589,10 @@
         <v>1.7199030146002769E-2</v>
       </c>
       <c r="D392">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E392">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11998,11 +11607,10 @@
         <v>3.2239519059658051E-2</v>
       </c>
       <c r="D393">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E393">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12017,11 +11625,10 @@
         <v>5.6970968842506409E-2</v>
       </c>
       <c r="D394">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E394">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12036,11 +11643,10 @@
         <v>1.4301145449280741E-2</v>
       </c>
       <c r="D395">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E395">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12055,11 +11661,10 @@
         <v>1.4502161182463171E-2</v>
       </c>
       <c r="D396">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E396">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12074,11 +11679,10 @@
         <v>0.94497740268707275</v>
       </c>
       <c r="D397">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E397">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12093,11 +11697,10 @@
         <v>1.431440655142069E-2</v>
       </c>
       <c r="D398">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E398">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12112,11 +11715,10 @@
         <v>1.4480201527476311E-2</v>
       </c>
       <c r="D399">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E399">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12131,11 +11733,10 @@
         <v>1.443879120051861E-2</v>
       </c>
       <c r="D400">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E400">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12150,11 +11751,10 @@
         <v>1.4224350452423099E-2</v>
       </c>
       <c r="D401">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E401">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12169,11 +11769,10 @@
         <v>3.7613850086927407E-2</v>
       </c>
       <c r="D402">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E402">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12188,11 +11787,10 @@
         <v>2.1329466253519062E-2</v>
       </c>
       <c r="D403">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E403">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12207,11 +11805,10 @@
         <v>1.742207445204258E-2</v>
       </c>
       <c r="D404">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E404">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12226,11 +11823,10 @@
         <v>0.98623603582382202</v>
       </c>
       <c r="D405">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E405">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12245,11 +11841,10 @@
         <v>4.5144643634557717E-2</v>
       </c>
       <c r="D406">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E406">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12264,11 +11859,10 @@
         <v>0.99035370349884033</v>
       </c>
       <c r="D407">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E407">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12283,11 +11877,10 @@
         <v>0.11902708560228351</v>
       </c>
       <c r="D408">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E408">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12302,11 +11895,10 @@
         <v>1.596412435173988E-2</v>
       </c>
       <c r="D409">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E409">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12321,11 +11913,10 @@
         <v>0.98769205808639526</v>
       </c>
       <c r="D410">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E410">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12340,11 +11931,10 @@
         <v>4.8053707927465439E-2</v>
       </c>
       <c r="D411">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E411">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12359,11 +11949,10 @@
         <v>0.68058347702026367</v>
       </c>
       <c r="D412">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E412">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F412">
@@ -12381,11 +11970,10 @@
         <v>1.433485373854637E-2</v>
       </c>
       <c r="D413">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E413">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12400,11 +11988,10 @@
         <v>1.42891388386488E-2</v>
       </c>
       <c r="D414">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E414">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12419,11 +12006,10 @@
         <v>3.4361030906438828E-2</v>
       </c>
       <c r="D415">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E415">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12438,11 +12024,10 @@
         <v>1.4409723691642279E-2</v>
       </c>
       <c r="D416">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E416">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12457,11 +12042,10 @@
         <v>1.438124757260084E-2</v>
       </c>
       <c r="D417">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E417">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12476,11 +12060,10 @@
         <v>2.8857847675681111E-2</v>
       </c>
       <c r="D418">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E418">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12495,11 +12078,10 @@
         <v>1.489893533289433E-2</v>
       </c>
       <c r="D419">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E419">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12514,11 +12096,10 @@
         <v>2.1229788661003109E-2</v>
       </c>
       <c r="D420">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E420">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12533,11 +12114,10 @@
         <v>1.5892708674073219E-2</v>
       </c>
       <c r="D421">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E421">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12552,11 +12132,10 @@
         <v>1.4352321624755859E-2</v>
       </c>
       <c r="D422">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E422">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12571,11 +12150,10 @@
         <v>1.423850003629923E-2</v>
       </c>
       <c r="D423">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E423">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12590,11 +12168,10 @@
         <v>1.4202830381691459E-2</v>
       </c>
       <c r="D424">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E424">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12609,11 +12186,10 @@
         <v>1.7016986384987831E-2</v>
       </c>
       <c r="D425">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E425">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12628,11 +12204,10 @@
         <v>1.501141954213381E-2</v>
       </c>
       <c r="D426">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E426">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12647,11 +12222,10 @@
         <v>1.43702756613493E-2</v>
       </c>
       <c r="D427">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E427">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12666,11 +12240,10 @@
         <v>1.442505698651075E-2</v>
       </c>
       <c r="D428">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E428">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12685,11 +12258,10 @@
         <v>1.450454164296389E-2</v>
       </c>
       <c r="D429">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E429">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12704,11 +12276,10 @@
         <v>1.417982298880816E-2</v>
       </c>
       <c r="D430">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E430">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12723,11 +12294,10 @@
         <v>1.422980148345232E-2</v>
       </c>
       <c r="D431">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E431">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12742,11 +12312,10 @@
         <v>0.98731321096420288</v>
       </c>
       <c r="D432">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E432">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12761,11 +12330,10 @@
         <v>2.4738134816288952E-2</v>
       </c>
       <c r="D433">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E433">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12780,11 +12348,10 @@
         <v>1.434175577014685E-2</v>
       </c>
       <c r="D434">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E434">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12799,11 +12366,10 @@
         <v>1.46980807185173E-2</v>
       </c>
       <c r="D435">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E435">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12818,11 +12384,10 @@
         <v>2.6602111756801609E-2</v>
       </c>
       <c r="D436">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E436">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12837,11 +12402,10 @@
         <v>4.2055919766426093E-2</v>
       </c>
       <c r="D437">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E437">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12856,11 +12420,10 @@
         <v>1.7609775066375729E-2</v>
       </c>
       <c r="D438">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E438">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12875,11 +12438,10 @@
         <v>0.17231157422065729</v>
       </c>
       <c r="D439">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E439">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12894,11 +12456,10 @@
         <v>1.420856080949306E-2</v>
       </c>
       <c r="D440">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E440">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12913,11 +12474,10 @@
         <v>1.452526170760393E-2</v>
       </c>
       <c r="D441">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E441">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12932,11 +12492,10 @@
         <v>1.950598880648613E-2</v>
       </c>
       <c r="D442">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E442">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12951,11 +12510,10 @@
         <v>8.61043781042099E-2</v>
       </c>
       <c r="D443">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E443">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12970,11 +12528,10 @@
         <v>3.8037970662116997E-2</v>
       </c>
       <c r="D444">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E444">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12989,11 +12546,10 @@
         <v>1.42738064751029E-2</v>
       </c>
       <c r="D445">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E445">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13008,11 +12564,10 @@
         <v>0.99057453870773315</v>
       </c>
       <c r="D446">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E446">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -13027,11 +12582,10 @@
         <v>2.766105905175209E-2</v>
       </c>
       <c r="D447">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E447">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13046,11 +12600,10 @@
         <v>1.4467434026300911E-2</v>
       </c>
       <c r="D448">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E448">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13065,11 +12618,10 @@
         <v>1.6827927902340889E-2</v>
       </c>
       <c r="D449">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E449">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -13084,11 +12636,10 @@
         <v>1.4258550480008131E-2</v>
       </c>
       <c r="D450">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E450">
-        <f t="shared" ref="E450:E513" si="14">IF(ISBLANK(F450),D450,F450)</f>
         <v>0</v>
       </c>
     </row>
@@ -13103,11 +12654,10 @@
         <v>1.418715808540583E-2</v>
       </c>
       <c r="D451">
-        <f t="shared" ref="D451:D514" si="15">IF(C451&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D451:D514" si="7">IF(C451&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E451">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13122,11 +12672,10 @@
         <v>2.269181422889233E-2</v>
       </c>
       <c r="D452">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E452">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13141,11 +12690,10 @@
         <v>1.433778461068869E-2</v>
       </c>
       <c r="D453">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E453">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13160,11 +12708,10 @@
         <v>1.4793445356190199E-2</v>
       </c>
       <c r="D454">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E454">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13179,11 +12726,10 @@
         <v>1.4284573495388029E-2</v>
       </c>
       <c r="D455">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E455">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13198,11 +12744,10 @@
         <v>1.420984882861376E-2</v>
       </c>
       <c r="D456">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E456">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13217,11 +12762,10 @@
         <v>1.4617792330682279E-2</v>
       </c>
       <c r="D457">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E457">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13236,11 +12780,10 @@
         <v>1.487884949892759E-2</v>
       </c>
       <c r="D458">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E458">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13255,11 +12798,10 @@
         <v>1.4371775090694429E-2</v>
       </c>
       <c r="D459">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E459">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13274,11 +12816,10 @@
         <v>0.99021965265274048</v>
       </c>
       <c r="D460">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E460">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F460">
@@ -13296,11 +12837,10 @@
         <v>1.552632171660662E-2</v>
       </c>
       <c r="D461">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E461">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13315,11 +12855,10 @@
         <v>1.462200935930014E-2</v>
       </c>
       <c r="D462">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E462">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13334,11 +12873,10 @@
         <v>0.8994026780128479</v>
       </c>
       <c r="D463">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E463">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F463">
@@ -13356,11 +12894,10 @@
         <v>1.5760865062475201E-2</v>
       </c>
       <c r="D464">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E464">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13375,11 +12912,10 @@
         <v>1.549449563026428E-2</v>
       </c>
       <c r="D465">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E465">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13394,11 +12930,10 @@
         <v>1.416464801877737E-2</v>
       </c>
       <c r="D466">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E466">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13413,11 +12948,10 @@
         <v>1.4224023558199409E-2</v>
       </c>
       <c r="D467">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E467">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13432,11 +12966,10 @@
         <v>1.4546799473464491E-2</v>
       </c>
       <c r="D468">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E468">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13451,11 +12984,10 @@
         <v>1.444198749959469E-2</v>
       </c>
       <c r="D469">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E469">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13470,11 +13002,10 @@
         <v>1.4265992678701879E-2</v>
       </c>
       <c r="D470">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E470">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13489,11 +13020,10 @@
         <v>1.7128098756074909E-2</v>
       </c>
       <c r="D471">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E471">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13508,11 +13038,10 @@
         <v>1.423491910099983E-2</v>
       </c>
       <c r="D472">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E472">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13527,11 +13056,10 @@
         <v>0.98982590436935425</v>
       </c>
       <c r="D473">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E473">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -13546,11 +13074,10 @@
         <v>1.5264619141817089E-2</v>
       </c>
       <c r="D474">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E474">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13565,11 +13092,10 @@
         <v>1.422592252492905E-2</v>
       </c>
       <c r="D475">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E475">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13584,11 +13110,10 @@
         <v>1.4404421672225E-2</v>
       </c>
       <c r="D476">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E476">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13603,11 +13128,10 @@
         <v>1.421145908534527E-2</v>
       </c>
       <c r="D477">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E477">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13622,11 +13146,10 @@
         <v>1.424970757216215E-2</v>
       </c>
       <c r="D478">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E478">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13641,11 +13164,10 @@
         <v>1.4431275427341459E-2</v>
       </c>
       <c r="D479">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E479">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13660,11 +13182,10 @@
         <v>1.422035973519087E-2</v>
       </c>
       <c r="D480">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E480">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13679,11 +13200,10 @@
         <v>0.58657866716384888</v>
       </c>
       <c r="D481">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E481">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -13698,11 +13218,10 @@
         <v>1.5536484308540819E-2</v>
       </c>
       <c r="D482">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E482">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13717,11 +13236,10 @@
         <v>1.4597722329199311E-2</v>
       </c>
       <c r="D483">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E483">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13736,11 +13254,10 @@
         <v>1.4224966987967489E-2</v>
       </c>
       <c r="D484">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E484">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13755,11 +13272,10 @@
         <v>1.4482493512332439E-2</v>
       </c>
       <c r="D485">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E485">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13774,11 +13290,10 @@
         <v>1.422027964144945E-2</v>
       </c>
       <c r="D486">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E486">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13793,11 +13308,10 @@
         <v>1.44689092412591E-2</v>
       </c>
       <c r="D487">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E487">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13812,11 +13326,10 @@
         <v>1.454805675894022E-2</v>
       </c>
       <c r="D488">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E488">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13831,11 +13344,10 @@
         <v>1.424830127507448E-2</v>
       </c>
       <c r="D489">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E489">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13850,11 +13362,10 @@
         <v>3.8863934576511383E-2</v>
       </c>
       <c r="D490">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E490">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13869,11 +13380,10 @@
         <v>3.6246240139007568E-2</v>
       </c>
       <c r="D491">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E491">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13888,11 +13398,10 @@
         <v>1.4288897626101971E-2</v>
       </c>
       <c r="D492">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E492">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13907,11 +13416,10 @@
         <v>1.8851438537240028E-2</v>
       </c>
       <c r="D493">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E493">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13926,11 +13434,10 @@
         <v>1.5702839940786362E-2</v>
       </c>
       <c r="D494">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E494">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13945,11 +13452,10 @@
         <v>1.463703718036413E-2</v>
       </c>
       <c r="D495">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E495">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13964,11 +13470,10 @@
         <v>0.65872931480407715</v>
       </c>
       <c r="D496">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E496">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F496">
@@ -13986,11 +13491,10 @@
         <v>1.46110076457262E-2</v>
       </c>
       <c r="D497">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E497">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14005,11 +13509,10 @@
         <v>2.2159820422530171E-2</v>
       </c>
       <c r="D498">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E498">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14024,11 +13527,10 @@
         <v>1.461049914360046E-2</v>
       </c>
       <c r="D499">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E499">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14043,11 +13545,10 @@
         <v>5.5776655673980713E-2</v>
       </c>
       <c r="D500">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E500">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14062,11 +13563,10 @@
         <v>5.3456190973520279E-2</v>
       </c>
       <c r="D501">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E501">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14081,11 +13581,10 @@
         <v>0.81872200965881348</v>
       </c>
       <c r="D502">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E502">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F502">
@@ -14103,11 +13602,10 @@
         <v>0.98343139886856079</v>
       </c>
       <c r="D503">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E503">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F503">
@@ -14125,11 +13623,10 @@
         <v>1.5277295373380181E-2</v>
       </c>
       <c r="D504">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E504">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14144,11 +13641,10 @@
         <v>1.5012476593256E-2</v>
       </c>
       <c r="D505">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E505">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14163,11 +13659,10 @@
         <v>1.534387189894915E-2</v>
       </c>
       <c r="D506">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E506">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14182,11 +13677,10 @@
         <v>2.4811247363686562E-2</v>
       </c>
       <c r="D507">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E507">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14201,11 +13695,10 @@
         <v>1.964632794260979E-2</v>
       </c>
       <c r="D508">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E508">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14220,11 +13713,10 @@
         <v>1.461339090019464E-2</v>
       </c>
       <c r="D509">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E509">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14239,11 +13731,10 @@
         <v>1.8660252913832661E-2</v>
       </c>
       <c r="D510">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E510">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14258,11 +13749,10 @@
         <v>1.47891454398632E-2</v>
       </c>
       <c r="D511">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E511">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14277,11 +13767,10 @@
         <v>1.5318396501243109E-2</v>
       </c>
       <c r="D512">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E512">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14296,11 +13785,10 @@
         <v>0.16623422503471369</v>
       </c>
       <c r="D513">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E513">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14315,11 +13803,10 @@
         <v>4.9263413995504379E-2</v>
       </c>
       <c r="D514">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E514">
-        <f t="shared" ref="E514:E577" si="16">IF(ISBLANK(F514),D514,F514)</f>
         <v>0</v>
       </c>
     </row>
@@ -14334,11 +13821,10 @@
         <v>0.9758988618850708</v>
       </c>
       <c r="D515">
-        <f t="shared" ref="D515:D578" si="17">IF(C515&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D515:D578" si="8">IF(C515&gt;0.5, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="E515">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -14353,11 +13839,10 @@
         <v>1.458867080509663E-2</v>
       </c>
       <c r="D516">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E516">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14372,11 +13857,10 @@
         <v>0.33110120892524719</v>
       </c>
       <c r="D517">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E517">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14391,11 +13875,10 @@
         <v>1.4901400543749331E-2</v>
       </c>
       <c r="D518">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E518">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14410,11 +13893,10 @@
         <v>6.1649557203054428E-2</v>
       </c>
       <c r="D519">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E519">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14429,11 +13911,10 @@
         <v>1.416501961648464E-2</v>
       </c>
       <c r="D520">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E520">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14448,11 +13929,10 @@
         <v>0.33099612593650818</v>
       </c>
       <c r="D521">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E521">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14467,11 +13947,10 @@
         <v>1.4558142982423311E-2</v>
       </c>
       <c r="D522">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E522">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14486,11 +13965,10 @@
         <v>1.462639402598143E-2</v>
       </c>
       <c r="D523">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E523">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14505,11 +13983,10 @@
         <v>3.3377766609191888E-2</v>
       </c>
       <c r="D524">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E524">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14524,11 +14001,10 @@
         <v>1.425798144191504E-2</v>
       </c>
       <c r="D525">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E525">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14543,11 +14019,10 @@
         <v>0.6278308629989624</v>
       </c>
       <c r="D526">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E526">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -14562,11 +14037,10 @@
         <v>2.4548577144742009E-2</v>
       </c>
       <c r="D527">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E527">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14581,11 +14055,10 @@
         <v>1.4805398881435391E-2</v>
       </c>
       <c r="D528">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E528">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14600,11 +14073,10 @@
         <v>0.73515385389328003</v>
       </c>
       <c r="D529">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E529">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -14619,11 +14091,10 @@
         <v>1.449815556406975E-2</v>
       </c>
       <c r="D530">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E530">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14638,11 +14109,10 @@
         <v>2.8642471879720691E-2</v>
       </c>
       <c r="D531">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E531">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14657,11 +14127,10 @@
         <v>1.464917976409197E-2</v>
       </c>
       <c r="D532">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E532">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14676,11 +14145,10 @@
         <v>2.0345978438854221E-2</v>
       </c>
       <c r="D533">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E533">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14695,11 +14163,10 @@
         <v>1.504712365567684E-2</v>
       </c>
       <c r="D534">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E534">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14714,11 +14181,10 @@
         <v>1.512424182146788E-2</v>
       </c>
       <c r="D535">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E535">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14733,11 +14199,10 @@
         <v>1.563282310962677E-2</v>
       </c>
       <c r="D536">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E536">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14752,11 +14217,10 @@
         <v>2.3955909535288811E-2</v>
       </c>
       <c r="D537">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E537">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14771,11 +14235,10 @@
         <v>1.4245655387639999E-2</v>
       </c>
       <c r="D538">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E538">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14790,11 +14253,10 @@
         <v>1.460138615220785E-2</v>
       </c>
       <c r="D539">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E539">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14809,11 +14271,10 @@
         <v>2.3340744897723201E-2</v>
       </c>
       <c r="D540">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E540">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14828,11 +14289,10 @@
         <v>1.4519850723445421E-2</v>
       </c>
       <c r="D541">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E541">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14847,11 +14307,10 @@
         <v>1.426489278674126E-2</v>
       </c>
       <c r="D542">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E542">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14866,11 +14325,10 @@
         <v>1.420398615300655E-2</v>
       </c>
       <c r="D543">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E543">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14885,11 +14343,10 @@
         <v>1.4175571501255041E-2</v>
       </c>
       <c r="D544">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E544">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14904,11 +14361,10 @@
         <v>1.431004051119089E-2</v>
       </c>
       <c r="D545">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E545">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14923,11 +14379,10 @@
         <v>1.6137557104229931E-2</v>
       </c>
       <c r="D546">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E546">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14942,11 +14397,10 @@
         <v>5.6363459676504142E-2</v>
       </c>
       <c r="D547">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E547">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14961,11 +14415,10 @@
         <v>1.4314562082290649E-2</v>
       </c>
       <c r="D548">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E548">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14980,11 +14433,10 @@
         <v>2.014376595616341E-2</v>
       </c>
       <c r="D549">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E549">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14999,11 +14451,10 @@
         <v>1.421826146543026E-2</v>
       </c>
       <c r="D550">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E550">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15018,11 +14469,10 @@
         <v>0.15893805027008059</v>
       </c>
       <c r="D551">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E551">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15037,11 +14487,10 @@
         <v>1.41806835308671E-2</v>
       </c>
       <c r="D552">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E552">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15056,11 +14505,10 @@
         <v>1.5140159986913201E-2</v>
       </c>
       <c r="D553">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E553">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15075,11 +14523,10 @@
         <v>1.43858976662159E-2</v>
       </c>
       <c r="D554">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E554">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15094,11 +14541,10 @@
         <v>1.440679188817739E-2</v>
       </c>
       <c r="D555">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E555">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15113,11 +14559,10 @@
         <v>1.4612230472266671E-2</v>
       </c>
       <c r="D556">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E556">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15132,11 +14577,10 @@
         <v>1.620690152049065E-2</v>
       </c>
       <c r="D557">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E557">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15151,11 +14595,10 @@
         <v>1.4169721864163881E-2</v>
       </c>
       <c r="D558">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E558">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15170,11 +14613,10 @@
         <v>1.4723355881869789E-2</v>
       </c>
       <c r="D559">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E559">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15189,11 +14631,10 @@
         <v>1.4909017831087111E-2</v>
       </c>
       <c r="D560">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E560">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15208,11 +14649,10 @@
         <v>8.7455697357654572E-2</v>
       </c>
       <c r="D561">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E561">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15227,11 +14667,10 @@
         <v>2.878651954233646E-2</v>
       </c>
       <c r="D562">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E562">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15246,11 +14685,10 @@
         <v>1.468205451965332E-2</v>
       </c>
       <c r="D563">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E563">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15265,11 +14703,10 @@
         <v>1.9845528528094292E-2</v>
       </c>
       <c r="D564">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E564">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15284,11 +14721,10 @@
         <v>0.99037593603134155</v>
       </c>
       <c r="D565">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E565">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -15303,11 +14739,10 @@
         <v>1.465850882232189E-2</v>
       </c>
       <c r="D566">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E566">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15322,11 +14757,10 @@
         <v>1.4810065738856791E-2</v>
       </c>
       <c r="D567">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E567">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15341,11 +14775,10 @@
         <v>0.77369821071624756</v>
       </c>
       <c r="D568">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E568">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F568">
@@ -15363,11 +14796,10 @@
         <v>1.4322260394692419E-2</v>
       </c>
       <c r="D569">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E569">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15382,11 +14814,10 @@
         <v>1.422242633998394E-2</v>
       </c>
       <c r="D570">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E570">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15401,11 +14832,10 @@
         <v>1.620453596115112E-2</v>
       </c>
       <c r="D571">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E571">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15420,11 +14850,10 @@
         <v>1.455319207161665E-2</v>
       </c>
       <c r="D572">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E572">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15439,11 +14868,10 @@
         <v>1.416556630283594E-2</v>
       </c>
       <c r="D573">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E573">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15458,11 +14886,10 @@
         <v>1.430594548583031E-2</v>
       </c>
       <c r="D574">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E574">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15477,11 +14904,10 @@
         <v>3.5657592117786407E-2</v>
       </c>
       <c r="D575">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E575">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15496,11 +14922,10 @@
         <v>1.4557137154042721E-2</v>
       </c>
       <c r="D576">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E576">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15515,11 +14940,10 @@
         <v>1.7047954723238948E-2</v>
       </c>
       <c r="D577">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E577">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15534,11 +14958,10 @@
         <v>1.427345816046E-2</v>
       </c>
       <c r="D578">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E578">
-        <f t="shared" ref="E578:E641" si="18">IF(ISBLANK(F578),D578,F578)</f>
         <v>0</v>
       </c>
     </row>
@@ -15553,11 +14976,10 @@
         <v>5.5396988987922668E-2</v>
       </c>
       <c r="D579">
-        <f t="shared" ref="D579:D642" si="19">IF(C579&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D579:D642" si="9">IF(C579&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E579">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15572,11 +14994,10 @@
         <v>1.465321984142065E-2</v>
       </c>
       <c r="D580">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E580">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15591,11 +15012,10 @@
         <v>1.784254610538483E-2</v>
       </c>
       <c r="D581">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E581">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15610,11 +15030,10 @@
         <v>1.4285418204963211E-2</v>
       </c>
       <c r="D582">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E582">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15629,11 +15048,10 @@
         <v>1.5940127894282341E-2</v>
       </c>
       <c r="D583">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E583">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15648,11 +15066,10 @@
         <v>0.33087736368179321</v>
       </c>
       <c r="D584">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E584">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15667,11 +15084,10 @@
         <v>1.4170140959322451E-2</v>
       </c>
       <c r="D585">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E585">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15686,11 +15102,10 @@
         <v>1.451922953128815E-2</v>
       </c>
       <c r="D586">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E586">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15705,11 +15120,10 @@
         <v>2.7825383469462391E-2</v>
       </c>
       <c r="D587">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E587">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15724,11 +15138,10 @@
         <v>1.419239863753319E-2</v>
       </c>
       <c r="D588">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E588">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15743,11 +15156,10 @@
         <v>1.4330111443996429E-2</v>
       </c>
       <c r="D589">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E589">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15762,11 +15174,10 @@
         <v>1.436690613627434E-2</v>
       </c>
       <c r="D590">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E590">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15781,11 +15192,10 @@
         <v>1.6038121655583382E-2</v>
       </c>
       <c r="D591">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E591">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15800,11 +15210,10 @@
         <v>1.422304753214121E-2</v>
       </c>
       <c r="D592">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E592">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15819,11 +15228,10 @@
         <v>1.4209027402102951E-2</v>
       </c>
       <c r="D593">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E593">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15838,11 +15246,10 @@
         <v>1.6329975798726078E-2</v>
       </c>
       <c r="D594">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E594">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15857,11 +15264,10 @@
         <v>0.33087736368179321</v>
       </c>
       <c r="D595">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E595">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15876,11 +15282,10 @@
         <v>1.436040550470352E-2</v>
       </c>
       <c r="D596">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E596">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15895,11 +15300,10 @@
         <v>1.451344508677721E-2</v>
       </c>
       <c r="D597">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E597">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15914,11 +15318,10 @@
         <v>1.7073573544621471E-2</v>
       </c>
       <c r="D598">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E598">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15933,11 +15336,10 @@
         <v>1.449667755514383E-2</v>
       </c>
       <c r="D599">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E599">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15952,11 +15354,10 @@
         <v>1.4764382503926751E-2</v>
       </c>
       <c r="D600">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E600">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15971,11 +15372,10 @@
         <v>1.446322537958622E-2</v>
       </c>
       <c r="D601">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E601">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15990,11 +15390,10 @@
         <v>1.418939046561718E-2</v>
       </c>
       <c r="D602">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E602">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16009,11 +15408,10 @@
         <v>1.4507553540170189E-2</v>
       </c>
       <c r="D603">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E603">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16028,11 +15426,10 @@
         <v>1.4195035211741921E-2</v>
       </c>
       <c r="D604">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E604">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16047,11 +15444,10 @@
         <v>1.4207912608981131E-2</v>
       </c>
       <c r="D605">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E605">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16066,11 +15462,10 @@
         <v>1.6808593645691872E-2</v>
       </c>
       <c r="D606">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E606">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16085,11 +15480,10 @@
         <v>8.1668049097061157E-2</v>
       </c>
       <c r="D607">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E607">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16104,11 +15498,10 @@
         <v>1.522714830935001E-2</v>
       </c>
       <c r="D608">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E608">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16123,11 +15516,10 @@
         <v>1.5270985662937161E-2</v>
       </c>
       <c r="D609">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E609">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16142,11 +15534,10 @@
         <v>2.2017484530806541E-2</v>
       </c>
       <c r="D610">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E610">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16161,11 +15552,10 @@
         <v>1.4292711392045019E-2</v>
       </c>
       <c r="D611">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E611">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16180,11 +15570,10 @@
         <v>2.9176279902458191E-2</v>
       </c>
       <c r="D612">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E612">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16199,11 +15588,10 @@
         <v>1.4450582675635809E-2</v>
       </c>
       <c r="D613">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E613">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16218,11 +15606,10 @@
         <v>0.46465384960174561</v>
       </c>
       <c r="D614">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E614">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16237,11 +15624,10 @@
         <v>1.5854040160775181E-2</v>
       </c>
       <c r="D615">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E615">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16256,11 +15642,10 @@
         <v>1.4842710457742211E-2</v>
       </c>
       <c r="D616">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E616">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16275,11 +15660,10 @@
         <v>1.423151418566704E-2</v>
       </c>
       <c r="D617">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E617">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16294,11 +15678,10 @@
         <v>1.478852052241564E-2</v>
       </c>
       <c r="D618">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E618">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16313,11 +15696,10 @@
         <v>1.424510590732098E-2</v>
       </c>
       <c r="D619">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E619">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16332,11 +15714,10 @@
         <v>0.99059802293777466</v>
       </c>
       <c r="D620">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E620">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -16351,11 +15732,10 @@
         <v>1.668094843626022E-2</v>
       </c>
       <c r="D621">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E621">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16370,11 +15750,10 @@
         <v>1.419326104223728E-2</v>
       </c>
       <c r="D622">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E622">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16389,11 +15768,10 @@
         <v>1.535927504301071E-2</v>
       </c>
       <c r="D623">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E623">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16408,11 +15786,10 @@
         <v>0.1024620085954666</v>
       </c>
       <c r="D624">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E624">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16427,11 +15804,10 @@
         <v>1.420481409877539E-2</v>
       </c>
       <c r="D625">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E625">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16446,11 +15822,10 @@
         <v>3.6576010286808007E-2</v>
       </c>
       <c r="D626">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E626">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16465,11 +15840,10 @@
         <v>0.99049723148345947</v>
       </c>
       <c r="D627">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E627">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -16484,11 +15858,10 @@
         <v>1.9422275945544239E-2</v>
       </c>
       <c r="D628">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E628">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16503,11 +15876,10 @@
         <v>1.43165597692132E-2</v>
       </c>
       <c r="D629">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E629">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16522,11 +15894,10 @@
         <v>1.464201603084803E-2</v>
       </c>
       <c r="D630">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E630">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16541,11 +15912,10 @@
         <v>1.4267635531723499E-2</v>
       </c>
       <c r="D631">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E631">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16560,11 +15930,10 @@
         <v>1.6720915213227269E-2</v>
       </c>
       <c r="D632">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E632">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16579,11 +15948,10 @@
         <v>1.4444104395806789E-2</v>
       </c>
       <c r="D633">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E633">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16598,11 +15966,10 @@
         <v>0.33110421895980829</v>
       </c>
       <c r="D634">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E634">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16617,11 +15984,10 @@
         <v>1.4341371133923531E-2</v>
       </c>
       <c r="D635">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E635">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16636,11 +16002,10 @@
         <v>1.4602703973650931E-2</v>
       </c>
       <c r="D636">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E636">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16655,11 +16020,10 @@
         <v>1.521967723965645E-2</v>
       </c>
       <c r="D637">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E637">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16674,11 +16038,10 @@
         <v>1.4423179440200331E-2</v>
       </c>
       <c r="D638">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E638">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16693,11 +16056,10 @@
         <v>1.447202358394861E-2</v>
       </c>
       <c r="D639">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E639">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16712,11 +16074,10 @@
         <v>0.84066849946975708</v>
       </c>
       <c r="D640">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E640">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -16731,11 +16092,10 @@
         <v>1.6765788197517398E-2</v>
       </c>
       <c r="D641">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E641">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -16750,11 +16110,10 @@
         <v>1.4802262187004089E-2</v>
       </c>
       <c r="D642">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E642">
-        <f t="shared" ref="E642:E681" si="20">IF(ISBLANK(F642),D642,F642)</f>
         <v>0</v>
       </c>
     </row>
@@ -16769,11 +16128,10 @@
         <v>1.468017790466547E-2</v>
       </c>
       <c r="D643">
-        <f t="shared" ref="D643:D681" si="21">IF(C643&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D643:D681" si="10">IF(C643&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E643">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -16788,11 +16146,10 @@
         <v>2.104338817298412E-2</v>
       </c>
       <c r="D644">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E644">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -16807,11 +16164,10 @@
         <v>2.715202234685421E-2</v>
       </c>
       <c r="D645">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E645">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -16826,11 +16182,10 @@
         <v>1.6408180817961689E-2</v>
       </c>
       <c r="D646">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E646">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -16845,11 +16200,10 @@
         <v>9.5660492777824402E-2</v>
       </c>
       <c r="D647">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E647">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -16864,11 +16218,10 @@
         <v>1.4549369923770429E-2</v>
       </c>
       <c r="D648">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E648">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -16883,11 +16236,10 @@
         <v>1.449958700686693E-2</v>
       </c>
       <c r="D649">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E649">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -16902,11 +16254,10 @@
         <v>1.6761410981416699E-2</v>
       </c>
       <c r="D650">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E650">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -16921,11 +16272,10 @@
         <v>1.8133815377950668E-2</v>
       </c>
       <c r="D651">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E651">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -16940,11 +16290,10 @@
         <v>3.4323126077651978E-2</v>
       </c>
       <c r="D652">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E652">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -16959,11 +16308,10 @@
         <v>1.4202797785401341E-2</v>
       </c>
       <c r="D653">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E653">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -16978,11 +16326,10 @@
         <v>1.439008489251137E-2</v>
       </c>
       <c r="D654">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E654">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -16997,11 +16344,10 @@
         <v>1.43894087523222E-2</v>
       </c>
       <c r="D655">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E655">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17016,11 +16362,10 @@
         <v>1.418667659163475E-2</v>
       </c>
       <c r="D656">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E656">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17035,11 +16380,10 @@
         <v>2.3527488112449649E-2</v>
       </c>
       <c r="D657">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E657">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17054,11 +16398,10 @@
         <v>1.454346254467964E-2</v>
       </c>
       <c r="D658">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E658">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17073,11 +16416,10 @@
         <v>8.5856862366199493E-2</v>
       </c>
       <c r="D659">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E659">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17092,11 +16434,10 @@
         <v>1.435114070773125E-2</v>
       </c>
       <c r="D660">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E660">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17111,11 +16452,10 @@
         <v>1.428559329360723E-2</v>
       </c>
       <c r="D661">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E661">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17130,11 +16470,10 @@
         <v>6.5299458801746368E-2</v>
       </c>
       <c r="D662">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E662">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17149,11 +16488,10 @@
         <v>0.9889528751373291</v>
       </c>
       <c r="D663">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E663">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -17168,11 +16506,10 @@
         <v>0.56418085098266602</v>
       </c>
       <c r="D664">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E664">
-        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -17187,11 +16524,10 @@
         <v>1.6205022111535069E-2</v>
       </c>
       <c r="D665">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E665">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17206,11 +16542,10 @@
         <v>1.499535329639912E-2</v>
       </c>
       <c r="D666">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E666">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17225,11 +16560,10 @@
         <v>0.97948235273361206</v>
       </c>
       <c r="D667">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E667">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F667">
@@ -17247,11 +16581,10 @@
         <v>0.91867280006408691</v>
       </c>
       <c r="D668">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E668">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F668">
@@ -17269,11 +16602,10 @@
         <v>1.517920941114426E-2</v>
       </c>
       <c r="D669">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E669">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17288,11 +16620,10 @@
         <v>0.78907358646392822</v>
       </c>
       <c r="D670">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E670">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F670">
@@ -17310,11 +16641,10 @@
         <v>1.428486686199903E-2</v>
       </c>
       <c r="D671">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E671">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17329,11 +16659,10 @@
         <v>1.42873851582408E-2</v>
       </c>
       <c r="D672">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E672">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17348,11 +16677,10 @@
         <v>4.0443602949380868E-2</v>
       </c>
       <c r="D673">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E673">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17367,11 +16695,10 @@
         <v>1.4442285522818571E-2</v>
       </c>
       <c r="D674">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E674">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17386,11 +16713,10 @@
         <v>1.4666087925434111E-2</v>
       </c>
       <c r="D675">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E675">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17405,11 +16731,10 @@
         <v>1.4516289345920089E-2</v>
       </c>
       <c r="D676">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E676">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17424,11 +16749,10 @@
         <v>1.43771655857563E-2</v>
       </c>
       <c r="D677">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E677">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17443,11 +16767,10 @@
         <v>1.860024593770504E-2</v>
       </c>
       <c r="D678">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E678">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17462,11 +16785,10 @@
         <v>2.3934327065944672E-2</v>
       </c>
       <c r="D679">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E679">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17481,11 +16803,10 @@
         <v>1.8641257658600811E-2</v>
       </c>
       <c r="D680">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E680">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -17500,11 +16821,10 @@
         <v>1.844490505754948E-2</v>
       </c>
       <c r="D681">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E681">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
